--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3919.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3919.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.321106724414978</v>
+        <v>1.576158285140991</v>
       </c>
       <c r="B1">
-        <v>1.693464299513233</v>
+        <v>1.697693467140198</v>
       </c>
       <c r="C1">
-        <v>2.541620879417</v>
+        <v>2.133358478546143</v>
       </c>
       <c r="D1">
-        <v>7.525366715829912</v>
+        <v>2.221862077713013</v>
       </c>
       <c r="E1">
-        <v>2.859147907859851</v>
+        <v>1.434656500816345</v>
       </c>
     </row>
   </sheetData>
